--- a/biology/Zoologie/Cicadelle_de_la_vigne/Cicadelle_de_la_vigne.xlsx
+++ b/biology/Zoologie/Cicadelle_de_la_vigne/Cicadelle_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « cicadelle de la vigne »  diverses espèces d'insectes hémiptères de la famille des Cicadellidae (ou de familles voisines) qui peuvent causer des dégâts aux vignobles, soit directement en piquant les feuilles pour sucer le contenu liquide des cellules, soit indirectement par la sécrétion de miellat et le développement subséquent de fumagine, ou comme vecteurs d'agents pathogènes (bactéries, phytoplasmes).
 Ces insectes sont le plus souvent polyphages et acceptent, outre la vigne, une gamme d'hôtes plus ou moins importante.
@@ -513,7 +525,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Cicadellidae
 Empoasca vitis (cicadelle des grillures de la vigne)
@@ -524,7 +538,7 @@
 Erythroneura variabilis
 Erythroneura vulnerata
 Erythroneura ziczac
-Jacobiasca lybica (cicadelle africaine de la vigne)[1]
+Jacobiasca lybica (cicadelle africaine de la vigne)
 Dikrella cockerellii
 Famille des Flatidae
 Metcalfa pruinosa (cicadelle blanche ou flatide pruineuse)</t>
